--- a/QuartoPasso/Formulario.xlsx
+++ b/QuartoPasso/Formulario.xlsx
@@ -286,7 +286,7 @@
     <t>Será exibido o DDD que possui dois dígitos e tem o preenchimento obrigatório, o número do telefone deve começar com o dígito 9, deve possuir 9 dígitos e deve ser apresentada a máscara (xxxxx-xxxx)</t>
   </si>
   <si>
-    <t>Selecionar um ddi = 61</t>
+    <t xml:space="preserve">Selecionar um ddi = 61 </t>
   </si>
   <si>
     <t>Limitar o campo  de telefone a 17 caracteres</t>
@@ -690,38 +690,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,17 +740,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,7 +757,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,13 +789,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,25 +802,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,6 +813,14 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -863,7 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +881,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,55 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,19 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,19 +1007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,25 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,22 +1343,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,6 +1388,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1411,32 +1435,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,138 +1449,138 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2743,7 +2743,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
